--- a/LAB4/PARTE A/Demodulacion de Emisoras FM.xlsx
+++ b/LAB4/PARTE A/Demodulacion de Emisoras FM.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karen Valencia\Downloads\GNURADIO_LABCOMUIS_2023_1_L1B_G3\LAB4\PARTE A\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B866BF-A08B-4B0E-A300-283A50EDE474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,122 +25,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">Nombre emisora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frecuencia operación [MHz]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancho de banda señal recibida [kHz]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">señal L+R
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="24">
+  <si>
+    <t>Nombre emisora</t>
+  </si>
+  <si>
+    <t>Frecuencia operación [MHz]</t>
+  </si>
+  <si>
+    <t>Ancho de banda señal recibida [kHz]</t>
+  </si>
+  <si>
+    <t>señal L+R
 (SI/NO)</t>
   </si>
   <si>
-    <t xml:space="preserve">Pilot 
+    <t>Pilot 
 (SI/NO)</t>
   </si>
   <si>
-    <t xml:space="preserve">Señal L-R
+    <t>Señal L-R
 (SI/NO)</t>
   </si>
   <si>
-    <t xml:space="preserve">señal RBDS
+    <t>señal RBDS
 (SI/NO)</t>
   </si>
   <si>
     <t xml:space="preserve">Emisora registrada </t>
   </si>
   <si>
-    <t xml:space="preserve">Imagen de evidencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W RADIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMISORA DE INTERES PUBLICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RADIÓNICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLOMBIA ESTEREO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMISORA COMUNITARIA LA BRUJULA - ÁREA DE SERVICIO No.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RADIO NACIONAL DE COLOMBIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA EXITOSA (RARO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA POPULARISIMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TROPICANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANTO TOMAS ESTEREO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UIS STEREO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RADIO OLIMPICA F.M ESTEREO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La inolvidable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARACOL</t>
+    <t>Imagen de evidencia</t>
+  </si>
+  <si>
+    <t>W RADIO</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>EMISORA DE INTERES PUBLICO</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>RADIÓNICA</t>
+  </si>
+  <si>
+    <t>COLOMBIA ESTEREO</t>
+  </si>
+  <si>
+    <t>EMISORA COMUNITARIA LA BRUJULA - ÁREA DE SERVICIO No.1</t>
+  </si>
+  <si>
+    <t>RADIO NACIONAL DE COLOMBIA</t>
+  </si>
+  <si>
+    <t>LA EXITOSA (RARO)</t>
+  </si>
+  <si>
+    <t>LA POPULARISIMA</t>
+  </si>
+  <si>
+    <t>TROPICANA</t>
+  </si>
+  <si>
+    <t>SANTO TOMAS ESTEREO</t>
+  </si>
+  <si>
+    <t>UIS STEREO</t>
+  </si>
+  <si>
+    <t>RADIO OLIMPICA F.M ESTEREO</t>
+  </si>
+  <si>
+    <t>La inolvidable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -154,123 +136,112 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>40822</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2349000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1170720</xdr:rowOff>
+      <xdr:colOff>2263275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Imagen 1" descr=""/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8669520" y="1034280"/>
-          <a:ext cx="2349000" cy="1170720"/>
+          <a:off x="8245929" y="938893"/>
+          <a:ext cx="2222453" cy="1106766"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -291,17 +262,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2373120</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1170720</xdr:rowOff>
+      <xdr:colOff>2268345</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4587</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Imagen 2" descr=""/>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -328,17 +305,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2373480</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1170720</xdr:rowOff>
+      <xdr:colOff>2268705</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 3" descr=""/>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -365,17 +348,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2380680</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1171080</xdr:rowOff>
+      <xdr:colOff>2266380</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 4" descr=""/>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -402,17 +391,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2384640</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1170720</xdr:rowOff>
+      <xdr:colOff>2270340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 5" descr=""/>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -439,17 +434,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2373840</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1170720</xdr:rowOff>
+      <xdr:colOff>2269065</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 6" descr=""/>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -476,17 +477,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2379240</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1170720</xdr:rowOff>
+      <xdr:colOff>2264940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 7" descr=""/>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -513,17 +520,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2363400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1170720</xdr:rowOff>
+      <xdr:colOff>2268150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 8" descr=""/>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -550,17 +563,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2383200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1170720</xdr:rowOff>
+      <xdr:colOff>2268900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4587</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 9" descr=""/>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -587,17 +606,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2361240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1170360</xdr:rowOff>
+      <xdr:colOff>2265990</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4228</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 10" descr=""/>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -624,17 +649,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2395440</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1170720</xdr:rowOff>
+      <xdr:colOff>2271615</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 11" descr=""/>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -661,17 +692,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2398320</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1170720</xdr:rowOff>
+      <xdr:colOff>2264970</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 12" descr=""/>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -698,17 +735,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2347560</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1170720</xdr:rowOff>
+      <xdr:colOff>2271360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagen 13" descr=""/>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -735,17 +778,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2399400</xdr:colOff>
+      <xdr:colOff>2266050</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1150560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 14" descr=""/>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -766,25 +815,317 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="16:16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34"/>
+    <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -813,406 +1154,396 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="7">
         <v>90.7</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="7">
         <v>147</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="7">
         <v>91.7</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="7">
         <v>174</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="H4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="7">
         <v>92.3</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="7">
         <v>160</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="7">
         <v>92.9</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="7">
         <v>250</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="H6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="7">
         <v>93.4</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="7">
         <v>177</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="7">
         <v>93.7</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="7">
         <v>152</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="7">
         <v>94.1</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="7">
         <v>534</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="7">
         <v>94.7</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="7">
         <v>178</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="H10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="7">
         <v>95.1</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="7">
         <v>180</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="7">
         <v>95.7</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="7">
         <v>163</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="7">
         <v>96.2</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="7">
         <v>168</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="7">
         <v>96.9</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="7">
         <v>143</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="7">
         <v>97.7</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="7">
         <v>137</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="H15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="7">
         <v>98.5</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="7">
         <v>193</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="4" t="n">
-        <v>99.2</v>
-      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1223,7 +1554,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1234,7 +1565,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1245,7 +1576,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1256,7 +1587,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1267,7 +1598,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1278,7 +1609,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1289,7 +1620,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1300,7 +1631,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1311,7 +1642,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1322,7 +1653,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1333,20 +1664,15 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="92.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="92.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="92.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>